--- a/Grafiken/Results/results_all_layers/MVS_Results.xlsx
+++ b/Grafiken/Results/results_all_layers/MVS_Results.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="103" windowWidth="15120" windowHeight="8014"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -261,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +423,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -430,7 +436,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -447,6 +452,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -746,26 +754,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.3046875" customWidth="1"/>
-    <col min="3" max="3" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.23046875" customWidth="1"/>
-    <col min="6" max="6" width="5.84375" customWidth="1"/>
-    <col min="7" max="7" width="6.3046875" customWidth="1"/>
-    <col min="8" max="8" width="5.921875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="6.15234375" customWidth="1"/>
-    <col min="11" max="11" width="10.84375" customWidth="1"/>
-    <col min="13" max="13" width="6.23046875" customWidth="1"/>
-    <col min="14" max="14" width="14.53515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15" thickBot="1">
+    <row r="2" spans="2:14" ht="15.75" thickBot="1">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -780,46 +788,46 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" ht="15" thickBot="1">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
@@ -834,7 +842,7 @@
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -846,7 +854,7 @@
       <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -857,7 +865,7 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -882,7 +890,7 @@
       <c r="J5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="4" t="s">
@@ -892,8 +900,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15" thickBot="1">
-      <c r="B6" s="23"/>
+    <row r="6" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B6" s="22"/>
       <c r="C6" s="4">
         <v>3</v>
       </c>
@@ -918,7 +926,7 @@
       <c r="J6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -929,7 +937,7 @@
       </c>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -956,7 +964,7 @@
       <c r="J7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="6" t="s">
@@ -967,7 +975,7 @@
       </c>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -994,7 +1002,7 @@
       <c r="J8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="7" t="s">
@@ -1004,8 +1012,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15" thickBot="1">
-      <c r="B9" s="25"/>
+    <row r="9" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
@@ -1030,7 +1038,7 @@
       <c r="J9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="15" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="9" t="s">
@@ -1041,7 +1049,7 @@
       </c>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1050,13 +1058,13 @@
       <c r="D10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="25" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -1068,7 +1076,7 @@
       <c r="J10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
@@ -1079,7 +1087,7 @@
       </c>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1088,13 +1096,13 @@
       <c r="D11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="26" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H11" s="4" t="s">
@@ -1106,7 +1114,7 @@
       <c r="J11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L11" s="7" t="s">
@@ -1116,21 +1124,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1">
-      <c r="B12" s="23"/>
+    <row r="12" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B12" s="22"/>
       <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>18</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -1142,7 +1150,7 @@
       <c r="J12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="14" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="8" t="s">
@@ -1153,7 +1161,7 @@
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1180,10 +1188,10 @@
       <c r="J13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="12" t="s">
         <v>42</v>
       </c>
       <c r="M13" s="10" t="s">
@@ -1191,7 +1199,7 @@
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1218,7 +1226,7 @@
       <c r="J14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="14" t="s">
         <v>13</v>
       </c>
       <c r="L14" s="8" t="s">
@@ -1228,8 +1236,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15" thickBot="1">
-      <c r="B15" s="25"/>
+    <row r="15" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B15" s="24"/>
       <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1254,7 +1262,7 @@
       <c r="J15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="L15" s="9" t="s">
@@ -1265,7 +1273,7 @@
       </c>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1274,13 +1282,13 @@
       <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -1292,10 +1300,10 @@
       <c r="J16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="28" t="s">
         <v>38</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1303,7 +1311,7 @@
       </c>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1312,13 +1320,13 @@
       <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="26" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="4" t="s">
@@ -1330,31 +1338,31 @@
       <c r="J17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="29" t="s">
         <v>39</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15" thickBot="1">
-      <c r="B18" s="25"/>
+    <row r="18" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -1366,10 +1374,10 @@
       <c r="J18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="30" t="s">
         <v>38</v>
       </c>
       <c r="M18" s="5" t="s">
@@ -1377,7 +1385,7 @@
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1392,7 +1400,7 @@
       <c r="F19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>51</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -1404,7 +1412,7 @@
       <c r="J19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="16" t="s">
         <v>49</v>
       </c>
       <c r="L19" s="3" t="s">
@@ -1416,7 +1424,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1443,7 +1451,7 @@
       <c r="J20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="18" t="s">
         <v>55</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -1454,8 +1462,8 @@
       </c>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" ht="15" thickBot="1">
-      <c r="B21" s="25"/>
+    <row r="21" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B21" s="24"/>
       <c r="C21" s="5" t="s">
         <v>27</v>
       </c>
@@ -1480,7 +1488,7 @@
       <c r="J21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="19" t="s">
         <v>60</v>
       </c>
       <c r="L21" s="4" t="s">
@@ -1492,7 +1500,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1519,10 +1527,10 @@
       <c r="J22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="14" t="s">
+      <c r="K22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="28" t="s">
         <v>38</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -1531,7 +1539,7 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1558,10 +1566,10 @@
       <c r="J23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="K23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="29" t="s">
         <v>39</v>
       </c>
       <c r="M23" s="4" t="s">
@@ -1569,8 +1577,8 @@
       </c>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="15" thickBot="1">
-      <c r="B24" s="25" t="s">
+    <row r="24" spans="2:14" ht="15.75" thickBot="1">
+      <c r="B24" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1597,10 +1605,10 @@
       <c r="J24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="30" t="s">
         <v>38</v>
       </c>
       <c r="M24" s="5" t="s">
@@ -2030,7 +2038,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2043,7 +2051,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Grafiken/Results/results_all_layers/MVS_Results.xlsx
+++ b/Grafiken/Results/results_all_layers/MVS_Results.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -222,8 +222,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +260,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -291,12 +298,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -416,14 +422,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -452,11 +474,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Akzent2" xfId="4" builtinId="33"/>
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Schlecht" xfId="2" builtinId="27"/>
@@ -464,13 +488,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -508,9 +540,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,9 +574,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,9 +609,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -751,14 +785,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
@@ -773,7 +807,7 @@
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1">
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -788,7 +822,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
@@ -826,7 +860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>9</v>
       </c>
@@ -842,7 +876,7 @@
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -864,7 +898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="22"/>
       <c r="C5" s="4">
         <v>2</v>
@@ -900,7 +934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickBot="1">
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22"/>
       <c r="C6" s="4">
         <v>3</v>
@@ -936,7 +970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
         <v>61</v>
       </c>
@@ -974,7 +1008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>64</v>
       </c>
@@ -1005,14 +1039,14 @@
       <c r="K8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="11" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="15.75" thickBot="1">
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
       <c r="C9" s="5" t="s">
         <v>27</v>
@@ -1048,7 +1082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>61</v>
       </c>
@@ -1079,14 +1113,14 @@
       <c r="K10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="11" t="s">
         <v>30</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="22" t="s">
         <v>63</v>
       </c>
@@ -1124,7 +1158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1">
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="4" t="s">
         <v>27</v>
@@ -1153,14 +1187,14 @@
       <c r="K12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="11" t="s">
         <v>29</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>61</v>
       </c>
@@ -1194,11 +1228,11 @@
       <c r="L13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>62</v>
       </c>
@@ -1229,14 +1263,14 @@
       <c r="K14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="11" t="s">
         <v>41</v>
       </c>
       <c r="M14" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1">
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="24"/>
       <c r="C15" s="5" t="s">
         <v>27</v>
@@ -1272,7 +1306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
         <v>65</v>
       </c>
@@ -1303,14 +1337,14 @@
       <c r="K16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="31" t="s">
         <v>38</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
         <v>35</v>
       </c>
@@ -1341,14 +1375,14 @@
       <c r="K17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="31" t="s">
         <v>39</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="15.75" thickBot="1">
+    <row r="18" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24"/>
       <c r="C18" s="5" t="s">
         <v>27</v>
@@ -1377,14 +1411,14 @@
       <c r="K18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="30" t="s">
+      <c r="L18" s="31" t="s">
         <v>38</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="23" t="s">
         <v>45</v>
       </c>
@@ -1423,7 +1457,7 @@
       </c>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>9</v>
       </c>
@@ -1462,7 +1496,7 @@
       </c>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" ht="15.75" thickBot="1">
+    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="24"/>
       <c r="C21" s="5" t="s">
         <v>27</v>
@@ -1499,7 +1533,7 @@
       </c>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="23" t="s">
         <v>45</v>
       </c>
@@ -1538,7 +1572,7 @@
       </c>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>9</v>
       </c>
@@ -1577,7 +1611,7 @@
       </c>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="15.75" thickBot="1">
+    <row r="24" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
         <v>35</v>
       </c>
@@ -1616,7 +1650,7 @@
       </c>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1630,7 +1664,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1644,7 +1678,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1658,7 +1692,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1672,7 +1706,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1686,7 +1720,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1700,7 +1734,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1714,7 +1748,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1728,7 +1762,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="3:14">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1742,7 +1776,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="3:14">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1756,7 +1790,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="3:14">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1770,7 +1804,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:14">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1784,7 +1818,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="3:14">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1798,7 +1832,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="3:14">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1812,7 +1846,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="3:14">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1826,7 +1860,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:14">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -1840,7 +1874,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="3:14">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1854,7 +1888,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:14">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1868,7 +1902,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="3:14">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1882,7 +1916,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:14">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1896,7 +1930,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="3:14">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1910,7 +1944,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="3:14">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1924,7 +1958,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="3:14">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1938,7 +1972,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="3:14">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1952,7 +1986,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="3:14">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -1966,7 +2000,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="3:14">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1980,7 +2014,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="3:14">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1994,7 +2028,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="3:14">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2008,7 +2042,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="3:14">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -2033,12 +2067,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -2046,12 +2080,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
